--- a/cities.xlsx
+++ b/cities.xlsx
@@ -421,110 +421,110 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>city</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>population</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>SPB</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5384342</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Moscow</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13010112</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Kazan</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1306953</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Novosibirsk</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1620162</t>
+          <t>SPB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Andrey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1493749</t>
+          <t>Novosibirsk</t>
         </is>
       </c>
     </row>
